--- a/correlation/data/macro_nav.xlsx
+++ b/correlation/data/macro_nav.xlsx
@@ -429,308 +429,311 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="2">
-        <v>43159</v>
+        <v>43190</v>
       </c>
       <c r="B2">
-        <v>8.800000000000001</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="C2">
-        <v>8.5</v>
+        <v>7.1</v>
       </c>
       <c r="D2">
-        <v>-2.119883</v>
+        <v>6</v>
       </c>
       <c r="E2">
-        <v>12.65316</v>
+        <v>11.91704</v>
       </c>
       <c r="F2">
-        <v>51</v>
+        <v>53.3</v>
       </c>
       <c r="G2">
-        <v>24.3</v>
+        <v>5.3</v>
       </c>
       <c r="H2">
-        <v>9.699999999999999</v>
+        <v>10.1</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="2">
-        <v>43190</v>
+        <v>43220</v>
       </c>
       <c r="B3">
-        <v>8.199999999999999</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="C3">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="D3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E3">
-        <v>11.91704</v>
+        <v>11.88641</v>
       </c>
       <c r="F3">
-        <v>53.3</v>
+        <v>52.9</v>
       </c>
       <c r="G3">
-        <v>5.3</v>
+        <v>16.5</v>
       </c>
       <c r="H3">
-        <v>10.1</v>
+        <v>9.4</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="2">
-        <v>43220</v>
+        <v>43251</v>
       </c>
       <c r="B4">
         <v>8.300000000000001</v>
       </c>
       <c r="C4">
-        <v>7.2</v>
+        <v>6</v>
       </c>
       <c r="D4">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="E4">
-        <v>11.88641</v>
+        <v>11.59132</v>
       </c>
       <c r="F4">
-        <v>52.9</v>
+        <v>53.8</v>
       </c>
       <c r="G4">
-        <v>16.5</v>
+        <v>18.19</v>
       </c>
       <c r="H4">
-        <v>9.4</v>
+        <v>8.5</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="2">
-        <v>43251</v>
+        <v>43281</v>
       </c>
       <c r="B5">
-        <v>8.300000000000001</v>
+        <v>8</v>
       </c>
       <c r="C5">
+        <v>6.6</v>
+      </c>
+      <c r="D5">
         <v>6</v>
       </c>
-      <c r="D5">
-        <v>6.8</v>
-      </c>
       <c r="E5">
-        <v>11.59132</v>
+        <v>11.10121</v>
       </c>
       <c r="F5">
-        <v>53.8</v>
+        <v>53.2</v>
       </c>
       <c r="G5">
-        <v>18.2</v>
+        <v>12.07</v>
       </c>
       <c r="H5">
-        <v>8.5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="2">
-        <v>43281</v>
+        <v>43312</v>
       </c>
       <c r="B6">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="C6">
-        <v>6.6</v>
+        <v>5.1</v>
       </c>
       <c r="D6">
         <v>6</v>
       </c>
       <c r="E6">
-        <v>11.10121</v>
+        <v>10.84098</v>
       </c>
       <c r="F6">
-        <v>53.2</v>
+        <v>52.3</v>
       </c>
       <c r="G6">
-        <v>12.1</v>
+        <v>18.27</v>
       </c>
       <c r="H6">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="2">
-        <v>43312</v>
+        <v>43343</v>
       </c>
       <c r="B7">
-        <v>8.5</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="C7">
-        <v>5.1</v>
+        <v>3.9</v>
       </c>
       <c r="D7">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="E7">
-        <v>10.84098</v>
+        <v>10.80255</v>
       </c>
       <c r="F7">
-        <v>52.3</v>
+        <v>52.2</v>
       </c>
       <c r="G7">
-        <v>18.3</v>
+        <v>14.51</v>
       </c>
       <c r="H7">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="2">
-        <v>43343</v>
+        <v>43373</v>
       </c>
       <c r="B8">
-        <v>8.199999999999999</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="C8">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="D8">
-        <v>6.1</v>
+        <v>5.8</v>
       </c>
       <c r="E8">
-        <v>10.80255</v>
+        <v>10.57528</v>
       </c>
       <c r="F8">
-        <v>52.2</v>
+        <v>52</v>
       </c>
       <c r="G8">
-        <v>14.5</v>
+        <v>14.11</v>
       </c>
       <c r="H8">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="2">
-        <v>43373</v>
+        <v>43404</v>
       </c>
       <c r="B9">
-        <v>8.300000000000001</v>
+        <v>8</v>
       </c>
       <c r="C9">
-        <v>4</v>
+        <v>2.7</v>
       </c>
       <c r="D9">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="E9">
-        <v>10.57528</v>
+        <v>10.22471</v>
       </c>
       <c r="F9">
-        <v>52</v>
+        <v>50.8</v>
       </c>
       <c r="G9">
-        <v>14.1</v>
+        <v>17</v>
       </c>
       <c r="H9">
-        <v>9.199999999999999</v>
+        <v>8.6</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="2">
-        <v>43404</v>
+        <v>43434</v>
       </c>
       <c r="B10">
         <v>8</v>
       </c>
       <c r="C10">
-        <v>2.7</v>
+        <v>1.5</v>
       </c>
       <c r="D10">
-        <v>5.9</v>
+        <v>5.4</v>
       </c>
       <c r="E10">
-        <v>10.22471</v>
+        <v>9.873882999999999</v>
       </c>
       <c r="F10">
-        <v>50.8</v>
+        <v>50.4</v>
       </c>
       <c r="G10">
-        <v>17</v>
+        <v>3.44</v>
       </c>
       <c r="H10">
-        <v>8.6</v>
+        <v>8.1</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="2">
-        <v>43434</v>
+        <v>43465</v>
       </c>
       <c r="B11">
-        <v>8</v>
+        <v>8.1</v>
       </c>
       <c r="C11">
         <v>1.5</v>
       </c>
       <c r="D11">
-        <v>5.4</v>
+        <v>5.7</v>
       </c>
       <c r="E11">
-        <v>9.873882999999999</v>
+        <v>9.776316</v>
       </c>
       <c r="F11">
-        <v>50.4</v>
+        <v>49.7</v>
       </c>
       <c r="G11">
-        <v>3.4</v>
+        <v>-5.9</v>
       </c>
       <c r="H11">
-        <v>8.1</v>
+        <v>8.160814</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="2">
-        <v>43465</v>
+        <v>43496</v>
       </c>
       <c r="B12">
-        <v>8.1</v>
+        <v>8.4</v>
       </c>
       <c r="C12">
-        <v>1.5</v>
+        <v>0.4</v>
       </c>
       <c r="D12">
-        <v>5.7</v>
+        <v>6.797753</v>
       </c>
       <c r="E12">
-        <v>9.776316</v>
+        <v>10.416816</v>
       </c>
       <c r="F12">
-        <v>49.7</v>
+        <v>49.6</v>
       </c>
       <c r="G12">
-        <v>-5.8</v>
-      </c>
-      <c r="H12">
-        <v>8.160814</v>
+        <v>4.1</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="2">
-        <v>43496</v>
+        <v>43524</v>
       </c>
       <c r="B13">
-        <v>8.4</v>
+        <v>8</v>
       </c>
       <c r="C13">
-        <v>0.4</v>
+        <v>2</v>
+      </c>
+      <c r="D13">
+        <v>3.360717</v>
       </c>
       <c r="E13">
-        <v>10.416816</v>
+        <v>10.081992</v>
       </c>
       <c r="F13">
-        <v>49.6</v>
+        <v>50.6</v>
       </c>
       <c r="G13">
-        <v>4</v>
+        <v>-13.8</v>
+      </c>
+      <c r="H13">
+        <v>8.199999999999999</v>
       </c>
     </row>
   </sheetData>

--- a/correlation/data/macro_nav.xlsx
+++ b/correlation/data/macro_nav.xlsx
@@ -429,311 +429,293 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="2">
-        <v>43190</v>
+        <v>43220</v>
       </c>
       <c r="B2">
-        <v>8.199999999999999</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="C2">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="D2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E2">
-        <v>11.91704</v>
+        <v>11.88641</v>
       </c>
       <c r="F2">
-        <v>53.3</v>
+        <v>52.9</v>
       </c>
       <c r="G2">
-        <v>5.3</v>
+        <v>16.5</v>
       </c>
       <c r="H2">
-        <v>10.1</v>
+        <v>9.4</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="2">
-        <v>43220</v>
+        <v>43251</v>
       </c>
       <c r="B3">
         <v>8.300000000000001</v>
       </c>
       <c r="C3">
-        <v>7.2</v>
+        <v>6</v>
       </c>
       <c r="D3">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="E3">
-        <v>11.88641</v>
+        <v>11.59132</v>
       </c>
       <c r="F3">
-        <v>52.9</v>
+        <v>53.8</v>
       </c>
       <c r="G3">
-        <v>16.5</v>
+        <v>18.19</v>
       </c>
       <c r="H3">
-        <v>9.4</v>
+        <v>8.5</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="2">
-        <v>43251</v>
+        <v>43281</v>
       </c>
       <c r="B4">
-        <v>8.300000000000001</v>
+        <v>8</v>
       </c>
       <c r="C4">
+        <v>6.6</v>
+      </c>
+      <c r="D4">
         <v>6</v>
       </c>
-      <c r="D4">
-        <v>6.8</v>
-      </c>
       <c r="E4">
-        <v>11.59132</v>
+        <v>11.10121</v>
       </c>
       <c r="F4">
-        <v>53.8</v>
+        <v>53.2</v>
       </c>
       <c r="G4">
-        <v>18.19</v>
+        <v>12.06</v>
       </c>
       <c r="H4">
-        <v>8.5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="2">
-        <v>43281</v>
+        <v>43312</v>
       </c>
       <c r="B5">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="C5">
-        <v>6.6</v>
+        <v>5.1</v>
       </c>
       <c r="D5">
         <v>6</v>
       </c>
       <c r="E5">
-        <v>11.10121</v>
+        <v>10.84098</v>
       </c>
       <c r="F5">
-        <v>53.2</v>
+        <v>52.3</v>
       </c>
       <c r="G5">
-        <v>12.07</v>
+        <v>18.26</v>
       </c>
       <c r="H5">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="2">
-        <v>43312</v>
+        <v>43343</v>
       </c>
       <c r="B6">
-        <v>8.5</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="C6">
-        <v>5.1</v>
+        <v>3.9</v>
       </c>
       <c r="D6">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="E6">
-        <v>10.84098</v>
+        <v>10.80255</v>
       </c>
       <c r="F6">
-        <v>52.3</v>
+        <v>52.2</v>
       </c>
       <c r="G6">
-        <v>18.27</v>
+        <v>14.5</v>
       </c>
       <c r="H6">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="2">
-        <v>43343</v>
+        <v>43373</v>
       </c>
       <c r="B7">
-        <v>8.199999999999999</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="C7">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="D7">
-        <v>6.1</v>
+        <v>5.8</v>
       </c>
       <c r="E7">
-        <v>10.80255</v>
+        <v>10.57528</v>
       </c>
       <c r="F7">
-        <v>52.2</v>
+        <v>52</v>
       </c>
       <c r="G7">
-        <v>14.51</v>
+        <v>14.12</v>
       </c>
       <c r="H7">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="2">
-        <v>43373</v>
+        <v>43404</v>
       </c>
       <c r="B8">
-        <v>8.300000000000001</v>
+        <v>8</v>
       </c>
       <c r="C8">
-        <v>4</v>
+        <v>2.7</v>
       </c>
       <c r="D8">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="E8">
-        <v>10.57528</v>
+        <v>10.22471</v>
       </c>
       <c r="F8">
-        <v>52</v>
+        <v>50.8</v>
       </c>
       <c r="G8">
-        <v>14.11</v>
+        <v>17</v>
       </c>
       <c r="H8">
-        <v>9.199999999999999</v>
+        <v>8.6</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="2">
-        <v>43404</v>
+        <v>43434</v>
       </c>
       <c r="B9">
         <v>8</v>
       </c>
       <c r="C9">
-        <v>2.7</v>
+        <v>1.5</v>
       </c>
       <c r="D9">
-        <v>5.9</v>
+        <v>5.4</v>
       </c>
       <c r="E9">
-        <v>10.22471</v>
+        <v>9.873882999999999</v>
       </c>
       <c r="F9">
-        <v>50.8</v>
+        <v>50.4</v>
       </c>
       <c r="G9">
-        <v>17</v>
+        <v>3.44</v>
       </c>
       <c r="H9">
-        <v>8.6</v>
+        <v>8.1</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="2">
-        <v>43434</v>
+        <v>43465</v>
       </c>
       <c r="B10">
-        <v>8</v>
+        <v>8.1</v>
       </c>
       <c r="C10">
         <v>1.5</v>
       </c>
       <c r="D10">
-        <v>5.4</v>
+        <v>5.7</v>
       </c>
       <c r="E10">
-        <v>9.873882999999999</v>
+        <v>9.776316</v>
       </c>
       <c r="F10">
-        <v>50.4</v>
+        <v>49.7</v>
       </c>
       <c r="G10">
-        <v>3.44</v>
+        <v>-5.91</v>
       </c>
       <c r="H10">
-        <v>8.1</v>
+        <v>8.160814</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="2">
-        <v>43465</v>
+        <v>43496</v>
       </c>
       <c r="B11">
-        <v>8.1</v>
+        <v>8.4</v>
       </c>
       <c r="C11">
-        <v>1.5</v>
+        <v>0.4</v>
       </c>
       <c r="D11">
-        <v>5.7</v>
+        <v>6.797753</v>
       </c>
       <c r="E11">
-        <v>9.776316</v>
+        <v>10.416816</v>
       </c>
       <c r="F11">
-        <v>49.7</v>
+        <v>49.6</v>
       </c>
       <c r="G11">
-        <v>-5.9</v>
-      </c>
-      <c r="H11">
-        <v>8.160814</v>
+        <v>4.1</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="2">
-        <v>43496</v>
+        <v>43524</v>
       </c>
       <c r="B12">
-        <v>8.4</v>
+        <v>8</v>
       </c>
       <c r="C12">
-        <v>0.4</v>
+        <v>2</v>
       </c>
       <c r="D12">
-        <v>6.797753</v>
+        <v>3.360717</v>
       </c>
       <c r="E12">
-        <v>10.416816</v>
+        <v>10.081992</v>
       </c>
       <c r="F12">
-        <v>49.6</v>
+        <v>50.6</v>
       </c>
       <c r="G12">
-        <v>4.1</v>
+        <v>-13.8</v>
+      </c>
+      <c r="H12">
+        <v>8.199999999999999</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="2">
-        <v>43524</v>
-      </c>
-      <c r="B13">
-        <v>8</v>
-      </c>
-      <c r="C13">
-        <v>2</v>
-      </c>
-      <c r="D13">
-        <v>3.360717</v>
-      </c>
-      <c r="E13">
-        <v>10.081992</v>
+        <v>43555</v>
       </c>
       <c r="F13">
-        <v>50.6</v>
-      </c>
-      <c r="G13">
-        <v>-13.8</v>
-      </c>
-      <c r="H13">
-        <v>8.199999999999999</v>
+        <v>51.6</v>
       </c>
     </row>
   </sheetData>
